--- a/constructive-method/solutions/Data_80_Salidas_composición_zonas_heterogéneas.xlsx_nearest_neighbor_minimize_avg_time.xlsx
+++ b/constructive-method/solutions/Data_80_Salidas_composición_zonas_heterogéneas.xlsx_nearest_neighbor_minimize_avg_time.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>937.8043842577576</v>
+        <v>662.0308682019679</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S005</t>
+          <t>S025</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S041</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S065</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S069</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S007</t>
+          <t>S045</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S005</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S008</t>
+          <t>S029</t>
         </is>
       </c>
     </row>
@@ -602,55 +602,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S009</t>
+          <t>S066</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pedido_7</t>
+          <t>Pedido_76</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S013</t>
+          <t>S002</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pedido_26</t>
+          <t>Pedido_28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S042</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pedido_28</t>
+          <t>Pedido_7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S014</t>
+          <t>S026</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pedido_76</t>
+          <t>Pedido_26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S011</t>
+          <t>S070</t>
         </is>
       </c>
     </row>
@@ -662,115 +662,115 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S006</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pedido_14</t>
+          <t>Pedido_37</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S012</t>
+          <t>S030</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pedido_20</t>
+          <t>Pedido_64</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S016</t>
+          <t>S046</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pedido_37</t>
+          <t>Pedido_20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S017</t>
+          <t>S003</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pedido_64</t>
+          <t>Pedido_14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S021</t>
+          <t>S067</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pedido_15</t>
+          <t>Pedido_71</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S018</t>
+          <t>S027</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pedido_21</t>
+          <t>Pedido_33</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S022</t>
+          <t>S043</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pedido_33</t>
+          <t>Pedido_21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S071</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pedido_47</t>
+          <t>Pedido_15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S023</t>
+          <t>S007</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pedido_71</t>
+          <t>Pedido_47</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S020</t>
+          <t>S031</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S024</t>
+          <t>S047</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S025</t>
+          <t>S068</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S029</t>
+          <t>S028</t>
         </is>
       </c>
     </row>
@@ -818,31 +818,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S026</t>
+          <t>S004</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pedido_2</t>
+          <t>Pedido_41</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S030</t>
+          <t>S044</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pedido_41</t>
+          <t>Pedido_2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S027</t>
+          <t>S072</t>
         </is>
       </c>
     </row>
@@ -854,43 +854,43 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S031</t>
+          <t>S008</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pedido_6</t>
+          <t>Pedido_35</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S032</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pedido_35</t>
+          <t>Pedido_6</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S032</t>
+          <t>S048</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pedido_4</t>
+          <t>Pedido_31</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S009</t>
         </is>
       </c>
     </row>
@@ -902,19 +902,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S037</t>
+          <t>S073</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pedido_31</t>
+          <t>Pedido_80</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S034</t>
+          <t>S033</t>
         </is>
       </c>
     </row>
@@ -926,19 +926,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S038</t>
+          <t>S049</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pedido_80</t>
+          <t>Pedido_4</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S013</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S039</t>
+          <t>S077</t>
         </is>
       </c>
     </row>
@@ -962,31 +962,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S037</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pedido_8</t>
+          <t>Pedido_77</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S053</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pedido_77</t>
+          <t>Pedido_8</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S041</t>
+          <t>S074</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S045</t>
+          <t>S010</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S042</t>
+          <t>S034</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S046</t>
+          <t>S050</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S043</t>
+          <t>S014</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S047</t>
+          <t>S078</t>
         </is>
       </c>
     </row>
@@ -1058,19 +1058,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S044</t>
+          <t>S038</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Pedido_19</t>
+          <t>Pedido_53</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S048</t>
+          <t>S054</t>
         </is>
       </c>
     </row>
@@ -1082,19 +1082,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S049</t>
+          <t>S011</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Pedido_53</t>
+          <t>Pedido_19</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S053</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S050</t>
+          <t>S075</t>
         </is>
       </c>
     </row>
@@ -1118,26 +1118,26 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S054</t>
+          <t>S051</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Pedido_18</t>
+          <t>Pedido_55</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S051</t>
+          <t>S015</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Pedido_55</t>
+          <t>Pedido_18</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S052</t>
+          <t>S039</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S056</t>
+          <t>S079</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S057</t>
+          <t>S036</t>
         </is>
       </c>
     </row>
@@ -1190,43 +1190,43 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S061</t>
+          <t>S012</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Pedido_1</t>
+          <t>Pedido_30</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S058</t>
+          <t>S052</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Pedido_30</t>
+          <t>Pedido_54</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S062</t>
+          <t>S076</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Pedido_54</t>
+          <t>Pedido_1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S059</t>
+          <t>S016</t>
         </is>
       </c>
     </row>
@@ -1238,31 +1238,31 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S063</t>
+          <t>S040</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Pedido_40</t>
+          <t>Pedido_67</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S060</t>
+          <t>S056</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Pedido_67</t>
+          <t>Pedido_40</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S064</t>
+          <t>S080</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S065</t>
+          <t>S017</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S069</t>
+          <t>S057</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S066</t>
+          <t>S021</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S070</t>
+          <t>S061</t>
         </is>
       </c>
     </row>
@@ -1322,19 +1322,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S067</t>
+          <t>S058</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Pedido_42</t>
+          <t>Pedido_63</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S071</t>
+          <t>S018</t>
         </is>
       </c>
     </row>
@@ -1346,19 +1346,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S068</t>
+          <t>S022</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pedido_63</t>
+          <t>Pedido_42</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S072</t>
+          <t>S062</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S073</t>
+          <t>S019</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S077</t>
+          <t>S059</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S074</t>
+          <t>S063</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S078</t>
+          <t>S023</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S075</t>
+          <t>S060</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S079</t>
+          <t>S020</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S076</t>
+          <t>S064</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S080</t>
+          <t>S024</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>937.8043842577576</v>
+        <v>662.0308682019679</v>
       </c>
     </row>
     <row r="3">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471.7803276029841</v>
+        <v>463.6656665585469</v>
       </c>
     </row>
     <row r="4">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>681.3863120337335</v>
+        <v>661.8178722024004</v>
       </c>
     </row>
     <row r="5">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243.0072980862797</v>
+        <v>468.5073791761271</v>
       </c>
     </row>
   </sheetData>
